--- a/results/Co60/Co60_R_30_cm_Nr_2000000000_ISO_model_det2_det3  - Unfolded Fluence Spectrum.xlsx
+++ b/results/Co60/Co60_R_30_cm_Nr_2000000000_ISO_model_det2_det3  - Unfolded Fluence Spectrum.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,40 +511,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21.6829767138364</v>
+        <v>16.27395536621195</v>
       </c>
       <c r="D2" t="n">
         <v>0.00301823225217215</v>
       </c>
       <c r="E2" t="n">
-        <v>0.008574046394687406</v>
+        <v>0.006275575909959944</v>
       </c>
       <c r="F2" t="n">
-        <v>12.07789067981953</v>
+        <v>8.324375026313408</v>
       </c>
       <c r="G2" t="n">
-        <v>11.81248820815439</v>
+        <v>7.920849506013032</v>
       </c>
       <c r="H2" t="n">
-        <v>12.33945939394448</v>
+        <v>8.777728043786844</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1889852808972061</v>
+        <v>0.100050592873538</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1860148535832799</v>
+        <v>0.09803150746425697</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1921786641875409</v>
+        <v>0.1024391192949508</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02552521810693456</v>
+        <v>0.01317952011340569</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02485683381960867</v>
+        <v>0.01283356493344551</v>
       </c>
       <c r="N2" t="n">
-        <v>0.02629439013217767</v>
+        <v>0.01358275867402604</v>
       </c>
     </row>
     <row r="3">
@@ -557,40 +557,86 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.3589057188001392</v>
+        <v>0.3589057182506037</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3038166774373344</v>
+        <v>0.3038166771491592</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3557873749964925</v>
+        <v>0.3557873748505794</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1590296660013632</v>
+        <v>0.2882425796302744</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1470635613274858</v>
+        <v>0.1986911320191278</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1788764450215727</v>
+        <v>0.3723267416218894</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1444223988203945</v>
+        <v>0.2669917055821284</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1386139247615701</v>
+        <v>0.1850185589117773</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1522975871124856</v>
+        <v>0.3439887162973743</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1511471480273976</v>
+        <v>0.2938553798918609</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1463207788226673</v>
+        <v>0.198306971834185</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1569252282778617</v>
+        <v>0.3834988144254472</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Beta + Gamma</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16.63286108446255</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3068349094013313</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3620629507605393</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8.612617605943683</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8.119540638032159</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9.150054785408734</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.3670422984556664</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.2830500663760343</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.4464278355923251</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.3070349000052666</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.2111405367676305</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.3970815730994733</v>
       </c>
     </row>
   </sheetData>
